--- a/USER STORIES.xlsx
+++ b/USER STORIES.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="101">
   <si>
     <t xml:space="preserve">USER STORIES pour l'application LE BON SANDWICH</t>
   </si>
@@ -49,6 +49,12 @@
     <t xml:space="preserve">uri</t>
   </si>
   <si>
+    <t xml:space="preserve">Commentaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pris en charge par</t>
+  </si>
+  <si>
     <t xml:space="preserve">catégorie / id</t>
   </si>
   <si>
@@ -61,6 +67,12 @@
     <t xml:space="preserve">/categories/{categoryId}</t>
   </si>
   <si>
+    <t xml:space="preserve">Cet appel permet d’obtenir les informations d’un sandwich (nom et description)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucas Briand</t>
+  </si>
+  <si>
     <t xml:space="preserve">collection de catégories</t>
   </si>
   <si>
@@ -70,6 +82,9 @@
     <t xml:space="preserve">/categories</t>
   </si>
   <si>
+    <t xml:space="preserve">Retourne la description et le nom de toutes les catégories disponibles</t>
+  </si>
+  <si>
     <t xml:space="preserve">liste des sandwichs disponibles</t>
   </si>
   <si>
@@ -79,6 +94,9 @@
     <t xml:space="preserve">/sandwichs</t>
   </si>
   <si>
+    <t xml:space="preserve">Cet appel permet d’obtenir les informations de tous les sandwichs (nom, catégorie et budget)</t>
+  </si>
+  <si>
     <t xml:space="preserve">un sandwich</t>
   </si>
   <si>
@@ -88,38 +106,19 @@
     <t xml:space="preserve">/sandwichs/{sandwichId}</t>
   </si>
   <si>
+    <t xml:space="preserve">Cet appel permet d’obtenir les informations d’un sandwich (nom, catégorie et budget)</t>
+  </si>
+  <si>
     <t xml:space="preserve">sandwich par catégorie</t>
   </si>
   <si>
     <t xml:space="preserve">obtenir la liste des sandwichs d'une catégorie</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Roboto"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/categories/ {</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Roboto"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">categoryId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Roboto"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">}/sandwichs</t>
-    </r>
+    <t xml:space="preserve">/categories/{categoryId}/sandwichs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cet appel permet d’obtenir les informations de tous les sandwichs d’une catégorie (nom, catégorie et budget)</t>
   </si>
   <si>
     <t xml:space="preserve">filtrage des sandwichs</t>
@@ -155,6 +154,12 @@
     <t xml:space="preserve">POST</t>
   </si>
   <si>
+    <t xml:space="preserve">/commands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cet appel permet au client de passer une nouvelle commande sur notre API avec les informations nécessaires</t>
+  </si>
+  <si>
     <t xml:space="preserve">Modifier une commande</t>
   </si>
   <si>
@@ -164,24 +169,36 @@
     <t xml:space="preserve">PUT</t>
   </si>
   <si>
+    <t xml:space="preserve">/commands/{commandId}</t>
+  </si>
+  <si>
     <t xml:space="preserve">Payer une commande</t>
   </si>
   <si>
     <t xml:space="preserve">payer une commande en transmettant des coordonnées bancaires – (n°carte+date-expiration)</t>
   </si>
   <si>
+    <t xml:space="preserve">/commands/{commandId}/pay</t>
+  </si>
+  <si>
     <t xml:space="preserve">état de la commande</t>
   </si>
   <si>
     <t xml:space="preserve">obtenir la commande pour suivre son état</t>
   </si>
   <si>
+    <t xml:space="preserve">/commands/{commandId}/status</t>
+  </si>
+  <si>
     <t xml:space="preserve">obtenir une facture</t>
   </si>
   <si>
     <t xml:space="preserve">Obtenir une facture pour une commande payée</t>
   </si>
   <si>
+    <t xml:space="preserve">/commands/{commandId}/bill</t>
+  </si>
+  <si>
     <t xml:space="preserve">SERVICE DE SUIVI de COMMANDES POINT DE VENTE</t>
   </si>
   <si>
@@ -191,18 +208,27 @@
     <t xml:space="preserve">liste des commandes, filtrées sur l'état , triée par date de livraison et ordre de création – permet au point de vente de planifier la préparation des commandes</t>
   </si>
   <si>
+    <t xml:space="preserve">Ici cette méthode est très utile pour le point de vente accéder à toutes les commandes récentes.</t>
+  </si>
+  <si>
     <t xml:space="preserve">détail d'une commande</t>
   </si>
   <si>
     <t xml:space="preserve">accès au détail complet d'une commande, avec la liste des items sous la forme de ressources imbriqués</t>
   </si>
   <si>
+    <t xml:space="preserve">Permet au client de récupérer les informations de sa commande</t>
+  </si>
+  <si>
     <t xml:space="preserve">changement d'état d'une commande</t>
   </si>
   <si>
     <t xml:space="preserve">changement de l'état d'une commande – vérification de la validité de la transition</t>
   </si>
   <si>
+    <t xml:space="preserve">/commands/{commandId}/status/{statusId}</t>
+  </si>
+  <si>
     <t xml:space="preserve">SERVICE DE PRISE DE COMMANDES – mode identifié</t>
   </si>
   <si>
@@ -266,7 +292,7 @@
     <t xml:space="preserve">DELETE</t>
   </si>
   <si>
-    <t xml:space="preserve">/sandiwch/{sandwichId}</t>
+    <t xml:space="preserve">On supprime simplement un sandwich grâce à son ID</t>
   </si>
   <si>
     <t xml:space="preserve">ajouter un sandwich</t>
@@ -275,10 +301,19 @@
     <t xml:space="preserve">ajouter un sandwich dans la liste, en indiquant sa catégorie – gérer le token csrf – </t>
   </si>
   <si>
+    <t xml:space="preserve">On crée un sandwich en donannt son nom et son budget, sa catégorie est donnée dans l’uri </t>
+  </si>
+  <si>
     <t xml:space="preserve">modifier 1 sandwich</t>
   </si>
   <si>
     <t xml:space="preserve">modifier la description, le nom ou le prix  d'un sandwich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/sandiwchs/{sandwichId} avec un body approprié</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On peut changer le nom et le budget d’un sandwich grâce à son ID</t>
   </si>
   <si>
     <t xml:space="preserve">s'authentifier comme staff gestionnaire</t>
@@ -297,13 +332,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -321,17 +355,87 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -339,27 +443,18 @@
       <color rgb="FFFFFFFF"/>
       <name val="Roboto"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Roboto"/>
       <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Roboto"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -372,28 +467,67 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
     </font>
     <font>
       <i val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -419,13 +553,40 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCF3834"/>
+        <bgColor rgb="FF993366"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3715A"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -457,6 +618,15 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thick">
+        <color rgb="FF000080"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thick"/>
       <right/>
       <top/>
@@ -474,6 +644,13 @@
       <left/>
       <right style="thick"/>
       <top/>
+      <bottom style="thick"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thick"/>
+      <top style="thick"/>
       <bottom style="thick"/>
       <diagonal/>
     </border>
@@ -499,7 +676,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -523,169 +700,252 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="63">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="13" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="14" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="14" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="13" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -693,81 +953,110 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="14" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="13" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="14" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF0000EE"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFCF3834"/>
+      <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFEFEFEF"/>
-      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFF3715A"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -783,7 +1072,7 @@
       <rgbColor rgb="FF9FC5E8"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -810,10 +1099,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W249"/>
+  <dimension ref="A1:Y249"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I44" activeCellId="0" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -825,9 +1114,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="44.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="9" style="0" width="9.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="24" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="28" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="100.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="38.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="12" style="0" width="9.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="26" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="30" style="0" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -854,6 +1145,8 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
@@ -881,6 +1174,8 @@
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
@@ -906,6 +1201,8 @@
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
@@ -931,6 +1228,8 @@
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5"/>
@@ -943,8 +1242,6 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -958,6 +1255,8 @@
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7"/>
@@ -982,8 +1281,12 @@
       <c r="H6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="I6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -997,6 +1300,8 @@
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
@@ -1007,22 +1312,26 @@
         <v>1</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F7" s="10" t="n">
         <v>2</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -1036,6 +1345,8 @@
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
@@ -1046,22 +1357,26 @@
         <v>1</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F8" s="14" t="n">
         <v>2</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -1075,6 +1390,8 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
@@ -1085,22 +1402,26 @@
         <v>1</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F9" s="10" t="n">
         <v>2</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -1114,6 +1435,8 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
@@ -1124,22 +1447,26 @@
         <v>1</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F10" s="14" t="n">
         <v>2</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -1153,6 +1480,8 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
@@ -1163,22 +1492,26 @@
         <v>1</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F11" s="10" t="n">
         <v>3</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -1192,6 +1525,8 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
@@ -1202,22 +1537,22 @@
         <v>1</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F12" s="14" t="n">
         <v>4</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="18"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -1231,32 +1566,34 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1"/>
-      <c r="B13" s="17" t="n">
+      <c r="B13" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="C13" s="18" t="n">
+      <c r="C13" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="18" t="n">
+      <c r="D13" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="G13" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="G13" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="22"/>
+      <c r="J13" s="23"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -1270,13 +1607,15 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1284,11 +1623,11 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
+      <c r="O14" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
@@ -1297,20 +1636,22 @@
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
-      <c r="B15" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="B15" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -1324,32 +1665,38 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="7"/>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="I16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -1363,30 +1710,38 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
-      <c r="B17" s="24" t="n">
+      <c r="B17" s="28" t="n">
         <v>101</v>
       </c>
-      <c r="C17" s="25" t="n">
+      <c r="C17" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="25" t="n">
+      <c r="D17" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="29" t="n">
         <v>4</v>
       </c>
-      <c r="G17" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="27"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="G17" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="32" t="s">
+        <v>16</v>
+      </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -1400,30 +1755,36 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1"/>
-      <c r="B18" s="28" t="n">
+      <c r="B18" s="33" t="n">
         <v>102</v>
       </c>
-      <c r="C18" s="29" t="n">
+      <c r="C18" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="D18" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="29" t="n">
+      <c r="D18" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="34" t="n">
         <v>4</v>
       </c>
-      <c r="G18" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="31"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="G18" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="36"/>
+      <c r="J18" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -1437,30 +1798,34 @@
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1"/>
-      <c r="B19" s="32" t="n">
+      <c r="B19" s="37" t="n">
         <v>103</v>
       </c>
-      <c r="C19" s="33" t="n">
+      <c r="C19" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="D19" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="33" t="n">
+      <c r="D19" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="G19" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="35"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="G19" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="40"/>
+      <c r="J19" s="41"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -1474,30 +1839,34 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1"/>
-      <c r="B20" s="28" t="n">
+      <c r="B20" s="33" t="n">
         <v>104</v>
       </c>
-      <c r="C20" s="29" t="n">
+      <c r="C20" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="D20" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="29" t="n">
+      <c r="D20" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="34" t="n">
         <v>3</v>
       </c>
-      <c r="G20" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="31"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="G20" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="36"/>
+      <c r="J20" s="42"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -1511,30 +1880,34 @@
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1"/>
-      <c r="B21" s="36" t="n">
+      <c r="B21" s="43" t="n">
         <v>105</v>
       </c>
-      <c r="C21" s="37" t="n">
+      <c r="C21" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="D21" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="37" t="n">
+      <c r="D21" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="44" t="n">
         <v>4</v>
       </c>
-      <c r="G21" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="39"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="G21" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="46"/>
+      <c r="J21" s="47"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -1548,30 +1921,34 @@
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="40"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
     </row>
     <row r="23" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
-      <c r="B23" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="B23" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -1585,32 +1962,38 @@
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="7"/>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="I24" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -1624,30 +2007,38 @@
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1"/>
-      <c r="B25" s="24" t="n">
+      <c r="B25" s="28" t="n">
         <v>201</v>
       </c>
-      <c r="C25" s="25" t="n">
+      <c r="C25" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="D25" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="25" t="n">
+      <c r="D25" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="29" t="n">
         <v>4</v>
       </c>
-      <c r="G25" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="27"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="G25" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I25" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25" s="32" t="s">
+        <v>16</v>
+      </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -1661,30 +2052,38 @@
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1"/>
-      <c r="B26" s="28" t="n">
+      <c r="B26" s="33" t="n">
         <v>202</v>
       </c>
-      <c r="C26" s="29" t="n">
+      <c r="C26" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="D26" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="30" t="s">
+      <c r="D26" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="34" t="n">
+        <v>4</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="29" t="n">
-        <v>4</v>
-      </c>
-      <c r="G26" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="31"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="I26" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -1698,30 +2097,34 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1"/>
-      <c r="B27" s="36" t="n">
+      <c r="B27" s="43" t="n">
         <v>203</v>
       </c>
-      <c r="C27" s="37" t="n">
+      <c r="C27" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="D27" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="37" t="n">
+      <c r="D27" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="44" t="n">
         <v>4</v>
       </c>
-      <c r="G27" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" s="39"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="G27" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="I27" s="46"/>
+      <c r="J27" s="47"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -1735,13 +2138,15 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
       <c r="F28" s="2"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -1760,20 +2165,22 @@
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="5"/>
-      <c r="B29" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="B29" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -1787,32 +2194,38 @@
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="7"/>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F30" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="G30" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H30" s="23" t="s">
+      <c r="H30" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
+      <c r="I30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -1826,30 +2239,32 @@
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="7"/>
-      <c r="B31" s="42" t="n">
+      <c r="B31" s="51" t="n">
         <v>106</v>
       </c>
-      <c r="C31" s="25" t="n">
+      <c r="C31" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="D31" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" s="25" t="n">
+      <c r="D31" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="G31" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="27"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+      <c r="G31" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="52"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -1863,30 +2278,32 @@
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1"/>
-      <c r="B32" s="28" t="n">
+      <c r="B32" s="33" t="n">
         <v>107</v>
       </c>
-      <c r="C32" s="29" t="n">
+      <c r="C32" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="D32" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="29" t="n">
+      <c r="D32" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="34" t="n">
         <v>5</v>
       </c>
-      <c r="G32" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="31"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
+      <c r="G32" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="42"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
@@ -1900,28 +2317,30 @@
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1"/>
-      <c r="B33" s="32" t="n">
+      <c r="B33" s="37" t="n">
         <v>108</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="33" t="n">
+      <c r="C33" s="38"/>
+      <c r="D33" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="G33" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="35"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
+      <c r="G33" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="41"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
@@ -1935,30 +2354,32 @@
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1"/>
-      <c r="B34" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="29" t="n">
+      <c r="B34" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="D34" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" s="29" t="n">
+      <c r="D34" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="34" t="n">
         <v>5</v>
       </c>
-      <c r="G34" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="H34" s="31"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
+      <c r="G34" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="42"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -1972,30 +2393,32 @@
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1"/>
-      <c r="B35" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="33" t="n">
+      <c r="B35" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="D35" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="E35" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="F35" s="33" t="n">
+      <c r="D35" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="38" t="n">
         <v>6</v>
       </c>
-      <c r="G35" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="H35" s="35"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
+      <c r="G35" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="41"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
@@ -2009,30 +2432,32 @@
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1"/>
-      <c r="B36" s="43" t="n">
+      <c r="B36" s="53" t="n">
         <v>109</v>
       </c>
-      <c r="C36" s="44" t="n">
+      <c r="C36" s="54" t="n">
         <v>3</v>
       </c>
-      <c r="D36" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="E36" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="F36" s="44" t="n">
+      <c r="D36" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" s="54" t="n">
         <v>5</v>
       </c>
-      <c r="G36" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="H36" s="46"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
+      <c r="G36" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="57"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
@@ -2046,13 +2471,15 @@
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
       <c r="F37" s="2"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -2071,20 +2498,22 @@
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="5"/>
-      <c r="B38" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
+      <c r="B38" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
@@ -2098,30 +2527,36 @@
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="7"/>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E39" s="23" t="s">
+      <c r="E39" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F39" s="23" t="s">
+      <c r="F39" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G39" s="23" t="s">
+      <c r="G39" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H39" s="23"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
@@ -2135,30 +2570,34 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1"/>
-      <c r="B40" s="32" t="n">
+      <c r="B40" s="37" t="n">
         <v>301</v>
       </c>
-      <c r="C40" s="33" t="n">
+      <c r="C40" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="D40" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="E40" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="F40" s="33" t="n">
+      <c r="D40" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="F40" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="G40" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="H40" s="48"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
+      <c r="G40" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="12"/>
+      <c r="J40" s="60"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
@@ -2172,32 +2611,38 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1"/>
-      <c r="B41" s="28" t="n">
+      <c r="B41" s="33" t="n">
         <v>302</v>
       </c>
-      <c r="C41" s="29" t="n">
+      <c r="C41" s="34" t="n">
         <v>2</v>
       </c>
-      <c r="D41" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="E41" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="F41" s="29" t="n">
+      <c r="D41" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" s="34" t="n">
         <v>4</v>
       </c>
-      <c r="G41" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="H41" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
+      <c r="G41" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="H41" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="I41" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="J41" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -2211,30 +2656,38 @@
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1"/>
-      <c r="B42" s="32" t="n">
+      <c r="B42" s="37" t="n">
         <v>303</v>
       </c>
-      <c r="C42" s="33" t="n">
+      <c r="C42" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="D42" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="E42" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="F42" s="33" t="n">
+      <c r="D42" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="F42" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="G42" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H42" s="35"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
+      <c r="G42" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
@@ -2248,30 +2701,38 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1"/>
-      <c r="B43" s="28" t="n">
+      <c r="B43" s="33" t="n">
         <v>304</v>
       </c>
-      <c r="C43" s="29" t="n">
+      <c r="C43" s="34" t="n">
         <v>2</v>
       </c>
-      <c r="D43" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="E43" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="F43" s="29" t="n">
+      <c r="D43" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="F43" s="34" t="n">
         <v>4</v>
       </c>
-      <c r="G43" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="H43" s="31"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
+      <c r="G43" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="I43" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="J43" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
@@ -2285,30 +2746,32 @@
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1"/>
-      <c r="B44" s="36" t="n">
+      <c r="B44" s="43" t="n">
         <v>305</v>
       </c>
-      <c r="C44" s="37" t="n">
+      <c r="C44" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="D44" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="E44" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="F44" s="37" t="n">
+      <c r="D44" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44" s="44" t="n">
         <v>5</v>
       </c>
-      <c r="G44" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H44" s="39"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
+      <c r="G44" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="47"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
@@ -2322,13 +2785,15 @@
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
       <c r="F45" s="2"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -2347,13 +2812,15 @@
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -2371,13 +2838,15 @@
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
       <c r="F47" s="2"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -2396,14 +2865,16 @@
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="50" t="s">
-        <v>80</v>
+      <c r="D48" s="24"/>
+      <c r="E48" s="61" t="s">
+        <v>100</v>
       </c>
       <c r="F48" s="2" t="n">
         <f aca="false">SUM(F7:F22)+SUM(F25:F27)+SUM(F31:F36)+SUM(F40:F44)</f>
@@ -2426,33 +2897,35 @@
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="51"/>
+      <c r="A49" s="62"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="51"/>
+      <c r="A50" s="62"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="51"/>
+      <c r="A51" s="62"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="51"/>
+      <c r="A52" s="62"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="51"/>
+      <c r="A53" s="62"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="51"/>
+      <c r="A54" s="62"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="51"/>
+      <c r="A55" s="62"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="51"/>
+      <c r="A56" s="62"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="51"/>
+      <c r="A57" s="62"/>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
